--- a/tests/spot_test_timestamp_lasertram_complete.xlsx
+++ b/tests/spot_test_timestamp_lasertram_complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jlubbers_usgs_gov/Documents/Research/Coding/laser_processing/laserTRAM-DB/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/jlubbers_usgs_gov/Documents/Research/Coding/laserTRAM-DB/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2BF0CA4B2564FF18F55B1250EA3161BAA3D6A3F8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCD6C860-E438-48D7-A8CB-31FEFC6ED6DB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2BF0CA4B2564FF18F55B1250EA3161BAA3D6A3F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD9190E-6760-4381-8E27-8676F1FE94AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -741,15 +741,25 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="34" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -957,7 +967,7 @@
         <v>1.4218534974946637</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>0.87136396245293068</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>6.6514810437250036</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1269,7 +1279,7 @@
         <v>1.2357834189693491</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v>6.4593533937367003</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1477,7 +1487,7 @@
         <v>1.9619756621389126</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>0.53696500617182463</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>0.56473698677579764</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1789,7 +1799,7 @@
         <v>0.86320409808346521</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>2.3580632763807645</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1997,7 +2007,7 @@
         <v>0.74701186161389443</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>1.3568903639018506</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2205,7 +2215,7 @@
         <v>0.84244754133239863</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>1.2633464260502947</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>0.83739996134057115</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>1.4409385674278363</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2621,7 +2631,7 @@
         <v>1.1651993241836296</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -2725,7 +2735,7 @@
         <v>0.99751640538174036</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2829,7 +2839,7 @@
         <v>0.89893032335744716</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2933,7 +2943,7 @@
         <v>1.1453996056388518</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3047,7 @@
         <v>1.7689308829560504</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -3141,7 +3151,7 @@
         <v>0.48418612112273213</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>0.8964352083757966</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -3349,7 +3359,7 @@
         <v>1.4346157311429055</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -3453,7 +3463,7 @@
         <v>0.7579974536397085</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3557,7 +3567,7 @@
         <v>1.2098216132966713</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>0.77759680079828364</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -3765,7 +3775,7 @@
         <v>1.2514208362437602</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3869,7 +3879,7 @@
         <v>0.72652626422031164</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>1.4072702040973954</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -4077,7 +4087,7 @@
         <v>0.87629831592621421</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>1.3037507453568227</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -4285,7 +4295,7 @@
         <v>0.86911568981802434</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -4389,7 +4399,7 @@
         <v>0.78404819935342529</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -4493,7 +4503,7 @@
         <v>1.2885435634204478</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -4597,7 +4607,7 @@
         <v>1.4333334821655557</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -4701,7 +4711,7 @@
         <v>3.5808101746034189</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>105</v>
       </c>
@@ -4805,7 +4815,7 @@
         <v>1.7730363138432637</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -4909,7 +4919,7 @@
         <v>0.49554822648201724</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>108</v>
       </c>
